--- a/content/posts/ut/ut3/pd/pd3/ut3pd3.xlsx
+++ b/content/posts/ut/ut3/pd/pd3/ut3pd3.xlsx
@@ -5,21 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pancho/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pancho/Documents/Github/Personal/ia-portfolio/content/posts/ut/ut3/pd/pd3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52BD165B-97BE-C144-873F-813281C590C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDA4D408-29D4-0C4A-A14F-0A6D303E74D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15500" xr2:uid="{3410A83D-C182-4445-91E1-B39E2137146D}"/>
+    <workbookView xWindow="-23020" yWindow="-18100" windowWidth="27640" windowHeight="15500" xr2:uid="{3410A83D-C182-4445-91E1-B39E2137146D}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Graficas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="TA5_DATASET" localSheetId="0">Datos!$A$1:$B$41</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{35EEDF69-5C0D-6441-9136-B405696BA2A8}" name="TA5-DATASET" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pancho/Downloads/TA5-DATASET.csv" comma="1" semicolon="1">
+    <textPr sourceFile="/Users/pancho/Downloads/TA5-DATASET.csv" comma="1" semicolon="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -187,36 +186,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-UY"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -227,15 +196,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Datos!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>0</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -261,10 +222,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Datos!$A$2:$A$41</c:f>
+              <c:f>Datos!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2.1935715120000001</c:v>
                 </c:pt>
@@ -324,195 +285,75 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3.3279592419999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.7691202219999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.0430062499999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.9826119420000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.7049656029999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.4739752060000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.8330546329999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.7918462210000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.5802977540000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.5404524469999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.504445102</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.0879720119999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.7977207640000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.1241049930000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.2943776309999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10.25831172</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.6598262439999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.9777545530000005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.5118113219999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.1650266770000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.6416136129999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$B$2:$B$41</c:f>
+              <c:f>Datos!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.1935715120000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.2731303540000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.951766535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.6837657310000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.8807698979999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.6818788730000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.9490395309999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.6134980649999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.1100542000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.7220220390000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.979528755</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.9420197130000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.5126290739999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.706944204</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.6656561050000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.2081006890000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3.2370131820000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.5480819709999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.7921864890000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>3.3279592419999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,7 +361,180 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF19-3546-91F5-E6BFD91BCD88}"/>
+              <c16:uniqueId val="{00000000-D16A-2C43-8BE6-135E117BED81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Datos!$A$22:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.7691202219999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0430062499999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9826119420000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7049656029999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4739752060000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8330546329999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7918462210000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5802977540000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5404524469999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.504445102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0879720119999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7977207640000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1241049930000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2943776309999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.25831172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6598262439999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9777545530000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5118113219999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1650266770000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6416136129999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Datos!$A$22:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.7691202219999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0430062499999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9826119420000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7049656029999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4739752060000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8330546329999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7918462210000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5802977540000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5404524469999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.504445102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0879720119999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7977207640000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1241049930000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2943776309999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.25831172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6598262439999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9777545530000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5118113219999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1650266770000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6416136129999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D16A-2C43-8BE6-135E117BED81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1271,27 +1285,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05266C1F-2A3A-D44B-9D40-DDD626E4EC42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B21C6B46-02FF-C84C-9A3C-31EEFC06C440}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1611,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D6A72D-0437-6040-AA4E-3D31E4EDE70F}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,11 +1673,11 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>POWER((A2-IF(B2=0,$K$3,$K$7)),2)</f>
+        <f t="shared" ref="D2:D41" si="0">POWER((A2-IF(B2=0,$K$3,$K$7)),2)</f>
         <v>1.2219297119042973</v>
       </c>
       <c r="E2">
-        <f>A2*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" ref="E2:E41" si="1">A2*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
         <v>-11.208609459483938</v>
       </c>
       <c r="F2">
@@ -1692,23 +1708,23 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>POWER((A3-IF(B3=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>6.6824597717620555E-4</v>
       </c>
       <c r="E3">
-        <f>A3*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-4.5308714010694349</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F41" si="0">IF(E3&gt;0,1,0)</f>
+        <f t="shared" ref="F3:F41" si="2">IF(E3&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <f t="shared" ref="G3:G41" si="1">F3=B3</f>
+        <f t="shared" ref="G3:G41" si="3">F3=B3</f>
         <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H41" si="2">B3-F3</f>
+        <f t="shared" ref="H3:H41" si="4">B3-F3</f>
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -1727,23 +1743,23 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>POWER((A4-IF(B4=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>2.7317006590443613</v>
       </c>
       <c r="E4">
-        <f>A4*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>5.8525299254654595</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="J4" t="s">
@@ -1762,23 +1778,23 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>POWER((A5-IF(B5=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>1.9176292826911596</v>
       </c>
       <c r="E5">
-        <f>A5*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>4.1947794639519547</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G5" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1794,23 +1810,23 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f>POWER((A6-IF(B6=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>6.6656349047266676</v>
       </c>
       <c r="E6">
-        <f>A6*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>11.598989379224589</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="J6" t="s">
@@ -1829,23 +1845,23 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f>POWER((A7-IF(B7=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.14661092810416462</v>
       </c>
       <c r="E7">
-        <f>A7*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-2.0025094114717792</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J7" t="s">
@@ -1864,23 +1880,23 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>POWER((A8-IF(B8=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.42257634321837884</v>
       </c>
       <c r="E8">
-        <f>A8*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-0.34995577175302539</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J8" t="s">
@@ -1899,23 +1915,23 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f>POWER((A9-IF(B9=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>2.8408520772879009</v>
       </c>
       <c r="E9">
-        <f>A9*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-14.796721920803197</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1927,23 +1943,23 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f>POWER((A10-IF(B10=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.65784004704817156</v>
       </c>
       <c r="E10">
-        <f>A10*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>0.64601938153492899</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -1955,23 +1971,23 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f>POWER((A11-IF(B11=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.33288142124138709</v>
       </c>
       <c r="E11">
-        <f>A11*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-7.9398166351859008</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11" t="s">
@@ -1990,23 +2006,23 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <f>POWER((A12-IF(B12=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>1.7409537204298053</v>
       </c>
       <c r="E12">
-        <f>A12*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-12.532596081555315</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J12" t="s">
@@ -2024,23 +2040,23 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f>POWER((A13-IF(B13=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.12742122341499121</v>
       </c>
       <c r="E13">
-        <f>A13*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-6.5789951743465576</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J13" t="s">
@@ -2059,23 +2075,23 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f>POWER((A14-IF(B14=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.61834904972207738</v>
       </c>
       <c r="E14">
-        <f>A14*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-9.2350414225206094</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J14" t="s">
@@ -2094,23 +2110,23 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f>POWER((A15-IF(B15=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>1.9823609241942601</v>
       </c>
       <c r="E15">
-        <f>A15*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>4.338152632015019</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -2122,23 +2138,23 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f>POWER((A16-IF(B16=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.40110017955670313</v>
       </c>
       <c r="E16">
-        <f>A16*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-8.2884747425777707</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2150,23 +2166,23 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f>POWER((A17-IF(B17=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>1.19001943424763</v>
       </c>
       <c r="E17">
-        <f>A17*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-11.118737528065548</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2178,23 +2194,23 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f>POWER((A18-IF(B18=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>3.8399866844693949E-3</v>
       </c>
       <c r="E18">
-        <f>A18*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-4.7542784120109491</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2206,23 +2222,23 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f>POWER((A19-IF(B19=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>6.2051389358132203E-2</v>
       </c>
       <c r="E19">
-        <f>A19*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-2.8301258690685902</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2234,23 +2250,23 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f>POWER((A20-IF(B20=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>2.2704291200720323</v>
       </c>
       <c r="E20">
-        <f>A20*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-13.691423679410155</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2262,23 +2278,23 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <f>POWER((A21-IF(B21=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>8.3974963129666218E-4</v>
       </c>
       <c r="E21">
-        <f>A21*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>-4.1917208723035895</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2290,23 +2306,23 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f>POWER((A22-IF(B22=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>3.2380287419261867E-4</v>
       </c>
       <c r="E22">
-        <f>A22*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>23.279602177349553</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2318,23 +2334,23 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <f>POWER((A23-IF(B23=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>1.5772634712008606</v>
       </c>
       <c r="E23">
-        <f>A23*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>31.159373876962086</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2346,23 +2362,23 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <f>POWER((A24-IF(B24=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.64722476075890956</v>
       </c>
       <c r="E24">
-        <f>A24*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>18.414562801743074</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G24" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2374,23 +2390,23 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <f>POWER((A25-IF(B25=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>6.7484816052704724E-3</v>
       </c>
       <c r="E25">
-        <f>A25*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>22.882766243769765</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2402,23 +2418,23 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <f>POWER((A26-IF(B26=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.4717772922669583</v>
       </c>
       <c r="E26">
-        <f>A26*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>27.639565496810697</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G26" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2430,23 +2446,23 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <f>POWER((A27-IF(B27=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.91023069816810775</v>
       </c>
       <c r="E27">
-        <f>A27*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>17.489458494901264</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G27" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2458,23 +2474,23 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <f>POWER((A28-IF(B28=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>2.2386860880246517E-5</v>
       </c>
       <c r="E28">
-        <f>A28*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>23.420176514322833</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2486,23 +2502,23 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <f>POWER((A29-IF(B29=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>4.2773267952429458E-2</v>
       </c>
       <c r="E29">
-        <f>A29*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>22.111618616109496</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G29" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2514,23 +2530,23 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <f>POWER((A30-IF(B30=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.5675176925766362</v>
       </c>
       <c r="E30">
-        <f>A30*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>28.050768281664631</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G30" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2542,23 +2558,23 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <f>POWER((A31-IF(B31=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>1.6452414142281506</v>
       </c>
       <c r="E31">
-        <f>A31*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>15.456805631393484</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2570,23 +2586,23 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <f>POWER((A32-IF(B32=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>9.0515094835937476E-2</v>
       </c>
       <c r="E32">
-        <f>A32*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>25.251897387429992</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G32" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2598,23 +2614,23 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <f>POWER((A33-IF(B33=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.97890045052948316</v>
       </c>
       <c r="E33">
-        <f>A33*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>17.270896696699317</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G33" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2626,23 +2642,23 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <f>POWER((A34-IF(B34=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>7.091620941643809</v>
       </c>
       <c r="E34">
-        <f>A34*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>6.9185497060853205</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G34" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2654,23 +2670,23 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <f>POWER((A35-IF(B35=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.24278986395651295</v>
       </c>
       <c r="E35">
-        <f>A35*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>20.343026101516706</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G35" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2682,23 +2698,23 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <f>POWER((A36-IF(B36=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>6.1068144870250718</v>
       </c>
       <c r="E36">
-        <f>A36*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>38.676788652226676</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G36" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2710,23 +2726,23 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <f>POWER((A37-IF(B37=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>1.6202362601386831E-2</v>
       </c>
       <c r="E37">
-        <f>A37*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>22.603551435090779</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G37" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2738,23 +2754,23 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <f>POWER((A38-IF(B38=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>1.4176231513227016</v>
       </c>
       <c r="E38">
-        <f>A38*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>30.755751838513696</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G38" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2766,23 +2782,23 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <f>POWER((A39-IF(B39=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.52518512806328932</v>
       </c>
       <c r="E39">
-        <f>A39*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>27.873605237829075</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2794,23 +2810,23 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <f>POWER((A40-IF(B40=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>0.14281742800785183</v>
       </c>
       <c r="E40">
-        <f>A40*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>25.728528071215251</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2822,23 +2838,23 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <f>POWER((A41-IF(B41=0,$K$3,$K$7)),2)</f>
+        <f t="shared" si="0"/>
         <v>2.1170579544232626E-2</v>
       </c>
       <c r="E41">
-        <f>A41*(IF(($K$12-1)=0,$K$3,$K$7)/$K$13)-(POWER(IF(($K$12-1)=0,$K$3,$K$7),2)/(2*$K$13))+LN(IF(($K$12-1)=0,$K$2,$K$6))</f>
+        <f t="shared" si="1"/>
         <v>22.490895066173223</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G41" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2866,20 +2882,6 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C077284-FBD2-394B-8EF7-B9157D5DC2A2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>